--- a/FSM.xlsx
+++ b/FSM.xlsx
@@ -28,7 +28,7 @@
     <t>Transition</t>
   </si>
   <si>
-    <t>Parameter1Name</t>
+    <t>Name1</t>
   </si>
   <si>
     <t>Type1</t>
@@ -185,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,92 +211,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,9 +253,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,13 +330,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -349,7 +347,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,13 +370,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,169 +532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,21 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,17 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -655,16 +650,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,19 +679,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,10 +700,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,104 +712,104 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1161,7 +1170,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1242,7 +1251,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>13</v>
@@ -1254,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
@@ -1324,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="48" customHeight="1" spans="1:12">
+    <row r="5" ht="40" customHeight="1" spans="1:12">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -1334,7 +1343,7 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1350,11 +1359,15 @@
         <v>2</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" ht="60" customHeight="1" spans="1:12">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="52" customHeight="1" spans="1:12">
       <c r="A6" s="4">
         <v>101</v>
       </c>
@@ -1364,7 +1377,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1392,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="68" customHeight="1" spans="1:12">
+    <row r="7" ht="57" customHeight="1" spans="1:12">
       <c r="A7" s="4">
         <v>102</v>
       </c>
@@ -1402,7 +1415,7 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1430,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="68" customHeight="1" spans="1:12">
+    <row r="8" ht="51" customHeight="1" spans="1:12">
       <c r="A8" s="4">
         <v>103</v>
       </c>
@@ -1440,7 +1453,7 @@
       <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1468,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="54" customHeight="1" spans="1:12">
+    <row r="9" ht="34" customHeight="1" spans="1:12">
       <c r="A9" s="4">
         <v>104</v>
       </c>
@@ -1478,7 +1491,7 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1494,11 +1507,15 @@
         <v>1</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" ht="57" customHeight="1" spans="1:12">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:12">
       <c r="A10" s="4">
         <v>105</v>
       </c>
@@ -1508,7 +1525,7 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1524,21 +1541,25 @@
         <v>2</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" ht="81" customHeight="1" spans="1:12">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="53" customHeight="1" spans="1:12">
       <c r="A11" s="4">
         <v>106</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1566,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="54" customHeight="1" spans="1:12">
+    <row r="12" ht="37" customHeight="1" spans="1:12">
       <c r="A12" s="4">
         <v>107</v>
       </c>
@@ -1576,7 +1597,7 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1592,11 +1613,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" ht="64" customHeight="1" spans="1:12">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="37" customHeight="1" spans="1:12">
       <c r="A13" s="4">
         <v>108</v>
       </c>
@@ -1606,7 +1631,7 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1622,15 +1647,19 @@
         <v>2</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1640,7 +1669,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1650,7 +1679,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1660,7 +1689,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1670,7 +1699,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1680,23 +1709,23 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
